--- a/Cópia de PROCESSOS TRT2 - FÍSICOS(233).xlsx
+++ b/Cópia de PROCESSOS TRT2 - FÍSICOS(233).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\torre\AppData\Local\Packages\microsoft.windowscommunicationsapps_8wekyb3d8bbwe\LocalState\Files\S0\165\Attachments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\torre\OneDrive\Documentos\UiPath\robô trt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F7E63A2-F6A0-43AD-AB32-5FD943AA5E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B3BA84-21A0-4D4A-BE48-E38C8F778E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +78,14 @@
       <color theme="5"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -121,13 +129,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,7 +430,7 @@
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -429,35 +438,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G13" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Cópia de PROCESSOS TRT2 - FÍSICOS(233).xlsx
+++ b/Cópia de PROCESSOS TRT2 - FÍSICOS(233).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\torre\OneDrive\Documentos\UiPath\robô trt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B3BA84-21A0-4D4A-BE48-E38C8F778E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5F29E2-4883-4AD3-8413-46CCDE2B5DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4965" yWindow="2790" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Processos TRT 2 - Físico" sheetId="1" r:id="rId1"/>
@@ -30,22 +30,22 @@
     <t>Número do Processo</t>
   </si>
   <si>
+    <t>0001880-70.2013.5.02.0202</t>
+  </si>
+  <si>
+    <t>1002201-07.2017.5.02.0604</t>
+  </si>
+  <si>
+    <t>1002201-43.2016.5.02.0086</t>
+  </si>
+  <si>
+    <t>1000728-47.2018.5.02.0055</t>
+  </si>
+  <si>
+    <t>1001068-29.2016.5.02.0065</t>
+  </si>
+  <si>
     <t>Status</t>
-  </si>
-  <si>
-    <t>0001880-70.2013.5.02.0202</t>
-  </si>
-  <si>
-    <t>1002201-07.2017.5.02.0604</t>
-  </si>
-  <si>
-    <t>1002201-43.2016.5.02.0086</t>
-  </si>
-  <si>
-    <t>1000728-47.2018.5.02.0055</t>
-  </si>
-  <si>
-    <t>1001068-29.2016.5.02.0065</t>
   </si>
 </sst>
 </file>
@@ -435,36 +435,36 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2"/>
     </row>

--- a/Cópia de PROCESSOS TRT2 - FÍSICOS(233).xlsx
+++ b/Cópia de PROCESSOS TRT2 - FÍSICOS(233).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\torre\OneDrive\Documentos\UiPath\robô trt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5F29E2-4883-4AD3-8413-46CCDE2B5DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6CEC54-F086-4563-B2BB-E53B100C7C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4965" yWindow="2790" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Cópia de PROCESSOS TRT2 - FÍSICOS(233).xlsx
+++ b/Cópia de PROCESSOS TRT2 - FÍSICOS(233).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\torre\OneDrive\Documentos\UiPath\robô trt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6CEC54-F086-4563-B2BB-E53B100C7C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BA2A87-4D22-4A29-82F6-A2315747916A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4965" yWindow="2790" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -420,7 +420,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Cópia de PROCESSOS TRT2 - FÍSICOS(233).xlsx
+++ b/Cópia de PROCESSOS TRT2 - FÍSICOS(233).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\torre\OneDrive\Documentos\UiPath\robô trt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BA2A87-4D22-4A29-82F6-A2315747916A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A44016-2E39-4743-851A-A214DF391FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4965" yWindow="2790" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -420,7 +420,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
